--- a/VRNN_theano_version/output/vrnn-disAll-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-disAll-dataport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="167" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all-builds" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="286">
   <si>
     <t>epochs</t>
   </si>
@@ -679,6 +679,12 @@
     <t>18-05-29_14-56</t>
   </si>
   <si>
+    <t>18-06-03_15-30</t>
+  </si>
+  <si>
+    <t>0:0.01, 40:0.001, 120:0.0001</t>
+  </si>
+  <si>
     <t>18-05-24_17-39</t>
   </si>
   <si>
@@ -761,6 +767,12 @@
   </si>
   <si>
     <t>18-05-29_15-42</t>
+  </si>
+  <si>
+    <t>18-06-02_20-04</t>
+  </si>
+  <si>
+    <t>18-06-03_15-35</t>
   </si>
   <si>
     <t>18-05-24_17-45</t>
@@ -2033,10 +2045,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE177"/>
+  <dimension ref="A1:AE181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q154" activeCellId="0" sqref="Q154"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB157" activeCellId="0" sqref="AB157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10540,13 +10552,13 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>6990</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>8</v>
@@ -10555,43 +10567,43 @@
         <v>0.01</v>
       </c>
       <c r="F131" s="3" t="n">
-        <v>-1909</v>
+        <v>-2462</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>1.16</v>
+        <v>0.153</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>0.32</v>
+        <v>0.068</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>-1909</v>
+        <v>-2494</v>
       </c>
       <c r="K131" s="0" t="n">
-        <v>1.13</v>
+        <v>0.15</v>
       </c>
       <c r="L131" s="0" t="n">
-        <v>0.32</v>
+        <v>0.067</v>
       </c>
       <c r="M131" s="2" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="N131" s="2" t="n">
-        <v>0.36</v>
+        <v>0.067</v>
       </c>
       <c r="O131" s="12" t="n">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="P131" s="12" t="n">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="Q131" s="0" t="s">
         <v>220</v>
       </c>
       <c r="R131" s="0" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="S131" s="0" t="n">
         <v>100</v>
@@ -10600,7 +10612,7 @@
         <v>150</v>
       </c>
       <c r="U131" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V131" s="0" t="n">
         <v>500</v>
@@ -10619,6 +10631,9 @@
       </c>
       <c r="AA131" s="0" t="n">
         <v>60</v>
+      </c>
+      <c r="AB131" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10638,43 +10653,43 @@
         <v>0.01</v>
       </c>
       <c r="F132" s="3" t="n">
-        <v>-1673</v>
+        <v>-1909</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>-1840</v>
+        <v>-1909</v>
       </c>
       <c r="K132" s="0" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="L132" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N132" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="M132" s="2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N132" s="2" t="n">
-        <v>0.38</v>
-      </c>
       <c r="O132" s="12" t="n">
-        <v>229</v>
-      </c>
-      <c r="P132" s="13" t="n">
-        <v>99</v>
+        <v>235</v>
+      </c>
+      <c r="P132" s="12" t="n">
+        <v>105</v>
       </c>
       <c r="Q132" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R132" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S132" s="0" t="n">
         <v>100</v>
@@ -10699,6 +10714,9 @@
       </c>
       <c r="Z132" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="AA132" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10718,43 +10736,43 @@
         <v>0.01</v>
       </c>
       <c r="F133" s="3" t="n">
-        <v>-1282</v>
+        <v>-1673</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>0.94</v>
+        <v>1.55</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>-1329</v>
+        <v>-1840</v>
       </c>
       <c r="K133" s="0" t="n">
-        <v>0.94</v>
+        <v>1.08</v>
       </c>
       <c r="L133" s="0" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="M133" s="2" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="N133" s="2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="O133" s="12" t="n">
-        <v>225</v>
-      </c>
-      <c r="P133" s="12" t="n">
-        <v>106</v>
+        <v>229</v>
+      </c>
+      <c r="P133" s="13" t="n">
+        <v>99</v>
       </c>
       <c r="Q133" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R133" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S133" s="0" t="n">
         <v>100</v>
@@ -10779,9 +10797,6 @@
       </c>
       <c r="Z133" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AA133" s="0" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10792,7 +10807,7 @@
         <v>6990</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>8</v>
@@ -10801,43 +10816,43 @@
         <v>0.01</v>
       </c>
       <c r="F134" s="3" t="n">
-        <v>-1612</v>
+        <v>-1282</v>
       </c>
       <c r="G134" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H134" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I134" s="5" t="n">
-        <v>0.35</v>
+      <c r="H134" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>0.33</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>-1703</v>
+        <v>-1329</v>
       </c>
       <c r="K134" s="0" t="n">
-        <v>1.28</v>
+        <v>0.94</v>
       </c>
       <c r="L134" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M134" s="5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N134" s="7" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="O134" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O134" s="12" t="n">
+        <v>225</v>
+      </c>
+      <c r="P134" s="12" t="n">
+        <v>106</v>
+      </c>
+      <c r="Q134" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="P134" s="0" t="n">
-        <v>107</v>
-      </c>
-      <c r="Q134" s="0" t="s">
-        <v>223</v>
-      </c>
       <c r="R134" s="0" t="s">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="S134" s="0" t="n">
         <v>100</v>
@@ -10862,6 +10877,9 @@
       </c>
       <c r="Z134" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="AA134" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10872,52 +10890,52 @@
         <v>6990</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F135" s="3" t="n">
-        <v>-1352</v>
+        <v>-1612</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H135" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="I135" s="8" t="n">
-        <v>0.31</v>
+        <v>0</v>
+      </c>
+      <c r="H135" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I135" s="5" t="n">
+        <v>0.35</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>-1518</v>
+        <v>-1703</v>
       </c>
       <c r="K135" s="0" t="n">
-        <v>0.89</v>
+        <v>1.28</v>
       </c>
       <c r="L135" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M135" s="2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N135" s="2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O135" s="12" t="n">
-        <v>235</v>
-      </c>
-      <c r="P135" s="12" t="n">
-        <v>108</v>
+        <v>0.34</v>
+      </c>
+      <c r="M135" s="5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N135" s="7" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="O135" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="P135" s="0" t="n">
+        <v>107</v>
       </c>
       <c r="Q135" s="0" t="s">
         <v>225</v>
       </c>
       <c r="R135" s="0" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="S135" s="0" t="n">
         <v>100</v>
@@ -10942,9 +10960,6 @@
       </c>
       <c r="Z135" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AA135" s="0" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10961,46 +10976,46 @@
         <v>8</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F136" s="3" t="n">
-        <v>-1347</v>
+        <v>-1352</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="I136" s="0" t="n">
-        <v>0.37</v>
+        <v>0.89</v>
+      </c>
+      <c r="I136" s="8" t="n">
+        <v>0.31</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>-1583</v>
+        <v>-1518</v>
       </c>
       <c r="K136" s="0" t="n">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="L136" s="0" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="M136" s="2" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="N136" s="2" t="n">
         <v>0.37</v>
       </c>
       <c r="O136" s="12" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P136" s="12" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q136" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R136" s="0" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="S136" s="0" t="n">
         <v>100</v>
@@ -11030,70 +11045,91 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F138" s="3"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>-1347</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>-1583</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O137" s="12" t="n">
+        <v>236</v>
+      </c>
+      <c r="P137" s="12" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q137" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="R137" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="S137" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T137" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U137" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V137" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W137" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X137" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y137" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z137" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA137" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="0" t="n">
-        <v>7951</v>
-      </c>
-      <c r="C139" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D139" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E139" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F139" s="0" t="n">
-        <v>-473</v>
-      </c>
-      <c r="G139" s="0" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="H139" s="0" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="I139" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J139" s="0" t="n">
-        <v>-1455</v>
-      </c>
-      <c r="K139" s="0" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L139" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O139" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P139" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q139" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="R139" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="S139" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="T139" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE139" s="0" t="s">
-        <v>172</v>
-      </c>
+      <c r="F139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="0" t="n">
@@ -11109,25 +11145,25 @@
         <v>0.001</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>-1398</v>
+        <v>-473</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>0.23</v>
+        <v>4.06</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>1.29</v>
+        <v>2.17</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>-1398</v>
+        <v>-1455</v>
       </c>
       <c r="K140" s="0" t="n">
-        <v>0.96</v>
+        <v>2.12</v>
       </c>
       <c r="L140" s="0" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>25</v>
@@ -11142,7 +11178,7 @@
         <v>25</v>
       </c>
       <c r="Q140" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R140" s="0" t="s">
         <v>133</v>
@@ -11162,7 +11198,7 @@
         <v>7951</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>8</v>
@@ -11170,27 +11206,27 @@
       <c r="E141" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="F141" s="3" t="n">
-        <v>-1928</v>
+      <c r="F141" s="0" t="n">
+        <v>-1398</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>1.21</v>
+        <v>0.23</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="I141" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>-1398</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L141" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="J141" s="0" t="n">
-        <v>-1944</v>
-      </c>
-      <c r="K141" s="0" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L141" s="0" t="n">
-        <v>0.38</v>
-      </c>
       <c r="M141" s="2" t="s">
         <v>25</v>
       </c>
@@ -11204,10 +11240,10 @@
         <v>25</v>
       </c>
       <c r="Q141" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R141" s="0" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="S141" s="0" t="n">
         <v>80</v>
@@ -11224,7 +11260,7 @@
         <v>7951</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>8</v>
@@ -11233,25 +11269,25 @@
         <v>0.001</v>
       </c>
       <c r="F142" s="3" t="n">
-        <v>-776</v>
+        <v>-1928</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>10.05</v>
+        <v>1.21</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>0.447</v>
+        <v>0.39</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>-1901</v>
+        <v>-1944</v>
       </c>
       <c r="K142" s="0" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="L142" s="0" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>25</v>
@@ -11269,7 +11305,7 @@
         <v>231</v>
       </c>
       <c r="R142" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="S142" s="0" t="n">
         <v>80</v>
@@ -11295,25 +11331,25 @@
         <v>0.001</v>
       </c>
       <c r="F143" s="3" t="n">
-        <v>-1912</v>
+        <v>-776</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>1.84</v>
+        <v>10.05</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>0.4</v>
+        <v>0.447</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>-1912</v>
+        <v>-1901</v>
       </c>
       <c r="K143" s="0" t="n">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="L143" s="0" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="M143" s="2" t="s">
         <v>25</v>
@@ -11328,10 +11364,10 @@
         <v>25</v>
       </c>
       <c r="Q143" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="R143" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="R143" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="S143" s="0" t="n">
         <v>80</v>
@@ -11348,7 +11384,7 @@
         <v>7951</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>8</v>
@@ -11356,23 +11392,23 @@
       <c r="E144" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="F144" s="24" t="n">
-        <v>-2083.084134</v>
-      </c>
-      <c r="G144" s="25" t="n">
-        <v>1.446265</v>
-      </c>
-      <c r="H144" s="26" t="n">
+      <c r="F144" s="3" t="n">
+        <v>-1912</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H144" s="0" t="n">
         <v>1.23</v>
       </c>
-      <c r="I144" s="27" t="n">
-        <v>0.402</v>
+      <c r="I144" s="0" t="n">
+        <v>0.4</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>-2083</v>
+        <v>-1912</v>
       </c>
       <c r="K144" s="0" t="n">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="L144" s="0" t="n">
         <v>0.38</v>
@@ -11390,10 +11426,16 @@
         <v>25</v>
       </c>
       <c r="Q144" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R144" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="S144" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T144" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AE144" s="0" t="s">
         <v>172</v>
@@ -11404,7 +11446,7 @@
         <v>7951</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>8</v>
@@ -11413,25 +11455,25 @@
         <v>0.001</v>
       </c>
       <c r="F145" s="24" t="n">
-        <v>-1701.235593</v>
+        <v>-2083.084134</v>
       </c>
       <c r="G145" s="25" t="n">
-        <v>0.205201</v>
+        <v>1.446265</v>
       </c>
       <c r="H145" s="26" t="n">
-        <v>1.303875</v>
-      </c>
-      <c r="I145" s="26" t="n">
-        <v>0.409625</v>
+        <v>1.23</v>
+      </c>
+      <c r="I145" s="27" t="n">
+        <v>0.402</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>-1715</v>
+        <v>-2083</v>
       </c>
       <c r="K145" s="0" t="n">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="L145" s="0" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>25</v>
@@ -11446,27 +11488,21 @@
         <v>25</v>
       </c>
       <c r="Q145" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R145" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="S145" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="T145" s="0" t="n">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="AE145" s="0" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="0" t="n">
         <v>7951</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>8</v>
@@ -11475,25 +11511,25 @@
         <v>0.001</v>
       </c>
       <c r="F146" s="24" t="n">
-        <v>-2171.673459</v>
-      </c>
-      <c r="G146" s="28" t="n">
-        <v>0.643717</v>
-      </c>
-      <c r="H146" s="0" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I146" s="0" t="n">
-        <v>0.39</v>
+        <v>-1701.235593</v>
+      </c>
+      <c r="G146" s="25" t="n">
+        <v>0.205201</v>
+      </c>
+      <c r="H146" s="26" t="n">
+        <v>1.303875</v>
+      </c>
+      <c r="I146" s="26" t="n">
+        <v>0.409625</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>-2309</v>
+        <v>-1715</v>
       </c>
       <c r="K146" s="0" t="n">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="L146" s="0" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>25</v>
@@ -11537,25 +11573,25 @@
         <v>0.001</v>
       </c>
       <c r="F147" s="24" t="n">
-        <v>-2106.317675</v>
+        <v>-2171.673459</v>
       </c>
       <c r="G147" s="28" t="n">
-        <v>0.905259</v>
+        <v>0.643717</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I147" s="8" t="n">
-        <v>0.38</v>
+        <v>1.27</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>0.39</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>-2363</v>
+        <v>-2309</v>
       </c>
       <c r="K147" s="0" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="L147" s="0" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>25</v>
@@ -11573,31 +11609,13 @@
         <v>238</v>
       </c>
       <c r="R147" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="S147" s="0" t="n">
         <v>80</v>
       </c>
       <c r="T147" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="U147" s="28" t="n">
-        <v>500</v>
-      </c>
-      <c r="V147" s="28" t="n">
-        <v>500</v>
-      </c>
-      <c r="W147" s="28" t="n">
-        <v>500</v>
-      </c>
-      <c r="X147" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y147" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z147" s="28" t="n">
-        <v>200</v>
       </c>
       <c r="AE147" s="0" t="s">
         <v>172</v>
@@ -11617,25 +11635,25 @@
         <v>0.001</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>-1707.700476</v>
+        <v>-2106.317675</v>
       </c>
       <c r="G148" s="28" t="n">
-        <v>2.741446</v>
+        <v>0.905259</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="I148" s="0" t="n">
-        <v>0.4</v>
+        <v>1.26</v>
+      </c>
+      <c r="I148" s="8" t="n">
+        <v>0.38</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>-1979</v>
+        <v>-2363</v>
       </c>
       <c r="K148" s="0" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="L148" s="0" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>25</v>
@@ -11650,13 +11668,13 @@
         <v>25</v>
       </c>
       <c r="Q148" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="R148" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="R148" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="S148" s="16" t="n">
-        <v>200</v>
+      <c r="S148" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="T148" s="0" t="n">
         <v>100</v>
@@ -11684,83 +11702,83 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="B149" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F149" s="24" t="n">
-        <v>-1158</v>
+        <v>-1707.700476</v>
       </c>
       <c r="G149" s="28" t="n">
-        <v>0</v>
+        <v>2.741446</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>-1374</v>
+        <v>-1979</v>
       </c>
       <c r="K149" s="0" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="L149" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M149" s="2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N149" s="2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O149" s="2" t="n">
-        <v>242</v>
-      </c>
-      <c r="P149" s="2" t="n">
-        <v>103</v>
+        <v>0.39</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="Q149" s="0" t="s">
         <v>241</v>
       </c>
       <c r="R149" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="S149" s="0" t="n">
-        <v>100</v>
+        <v>242</v>
+      </c>
+      <c r="S149" s="16" t="n">
+        <v>200</v>
       </c>
       <c r="T149" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U149" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V149" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W149" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X149" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y149" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z149" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="U149" s="28" t="n">
+        <v>500</v>
+      </c>
+      <c r="V149" s="28" t="n">
+        <v>500</v>
+      </c>
+      <c r="W149" s="28" t="n">
+        <v>500</v>
+      </c>
+      <c r="X149" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y149" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z149" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE149" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11780,40 +11798,40 @@
         <v>0.01</v>
       </c>
       <c r="F150" s="24" t="n">
-        <v>-1377</v>
+        <v>-1158</v>
       </c>
       <c r="G150" s="28" t="n">
         <v>0</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>-1377</v>
+        <v>-1374</v>
       </c>
       <c r="K150" s="0" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="L150" s="0" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="M150" s="2" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="N150" s="2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="O150" s="2" t="n">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="P150" s="2" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="Q150" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R150" s="0" t="s">
         <v>78</v>
@@ -11841,9 +11859,6 @@
       </c>
       <c r="Z150" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AA150" s="0" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11860,46 +11875,46 @@
         <v>8</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F151" s="24" t="n">
-        <v>-1221</v>
+        <v>-1377</v>
       </c>
       <c r="G151" s="28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>-1317</v>
+        <v>-1377</v>
       </c>
       <c r="K151" s="0" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="L151" s="8" t="n">
-        <v>0.39</v>
+        <v>1.37</v>
+      </c>
+      <c r="L151" s="0" t="n">
+        <v>0.44</v>
       </c>
       <c r="M151" s="2" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="N151" s="2" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="O151" s="2" t="n">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="P151" s="2" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="Q151" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R151" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="S151" s="0" t="n">
         <v>100</v>
@@ -11946,40 +11961,40 @@
         <v>0.001</v>
       </c>
       <c r="F152" s="24" t="n">
-        <v>-1114</v>
+        <v>-1221</v>
       </c>
       <c r="G152" s="28" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I152" s="8" t="n">
-        <v>0.42</v>
+        <v>1.45</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>0.39</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>-1271</v>
+        <v>-1317</v>
       </c>
       <c r="K152" s="0" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="L152" s="0" t="n">
-        <v>0.4</v>
+        <v>1.45</v>
+      </c>
+      <c r="L152" s="8" t="n">
+        <v>0.39</v>
       </c>
       <c r="M152" s="2" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="N152" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="O152" s="2" t="n">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="P152" s="2" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="Q152" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R152" s="0" t="s">
         <v>59</v>
@@ -12026,46 +12041,46 @@
         <v>8</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F153" s="24" t="n">
-        <v>-1634</v>
+        <v>-1114</v>
       </c>
       <c r="G153" s="28" t="n">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="I153" s="0" t="n">
-        <v>0.41</v>
+        <v>1.54</v>
+      </c>
+      <c r="I153" s="8" t="n">
+        <v>0.42</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>-1677</v>
+        <v>-1271</v>
       </c>
       <c r="K153" s="0" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="L153" s="0" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="M153" s="2" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="N153" s="2" t="n">
         <v>0.32</v>
       </c>
       <c r="O153" s="2" t="n">
-        <v>198</v>
-      </c>
-      <c r="P153" s="23" t="n">
-        <v>86</v>
+        <v>250</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>102</v>
       </c>
       <c r="Q153" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R153" s="0" t="s">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="S153" s="0" t="n">
         <v>100</v>
@@ -12094,11 +12109,8 @@
       <c r="AA153" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="AB153" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>60</v>
       </c>
@@ -12115,40 +12127,40 @@
         <v>0.01</v>
       </c>
       <c r="F154" s="24" t="n">
-        <v>-1700</v>
+        <v>-1634</v>
       </c>
       <c r="G154" s="28" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>0.18</v>
+        <v>1.43</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>-1907</v>
+        <v>-1677</v>
       </c>
       <c r="K154" s="0" t="n">
-        <v>0.18</v>
+        <v>1.43</v>
       </c>
       <c r="L154" s="0" t="n">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="M154" s="2" t="n">
-        <v>0.197</v>
+        <v>1.43</v>
       </c>
       <c r="N154" s="2" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="O154" s="29" t="n">
-        <v>197</v>
-      </c>
-      <c r="P154" s="29" t="n">
-        <v>89</v>
+        <v>0.32</v>
+      </c>
+      <c r="O154" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="P154" s="23" t="n">
+        <v>86</v>
       </c>
       <c r="Q154" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R154" s="0" t="s">
         <v>218</v>
@@ -12184,7 +12196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>60</v>
       </c>
@@ -12201,40 +12213,40 @@
         <v>0.01</v>
       </c>
       <c r="F155" s="24" t="n">
-        <v>-1298</v>
+        <v>-1700</v>
       </c>
       <c r="G155" s="28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>-1786</v>
+        <v>-1907</v>
       </c>
       <c r="K155" s="0" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="L155" s="0" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M155" s="2" t="n">
-        <v>0.296</v>
+        <v>0.197</v>
       </c>
       <c r="N155" s="2" t="n">
-        <v>0.158</v>
+        <v>0.089</v>
       </c>
       <c r="O155" s="29" t="n">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="P155" s="29" t="n">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="Q155" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R155" s="0" t="s">
         <v>218</v>
@@ -12267,12 +12279,12 @@
         <v>60</v>
       </c>
       <c r="AB155" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>7951</v>
@@ -12287,43 +12299,43 @@
         <v>0.01</v>
       </c>
       <c r="F156" s="24" t="n">
-        <v>-1105</v>
+        <v>-1298</v>
       </c>
       <c r="G156" s="28" t="n">
         <v>0</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>1.3</v>
+        <v>0.28</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="J156" s="0" t="n">
-        <v>-1105</v>
+        <v>-1786</v>
       </c>
       <c r="K156" s="0" t="n">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="L156" s="0" t="n">
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="M156" s="2" t="n">
-        <v>2.33</v>
+        <v>0.296</v>
       </c>
       <c r="N156" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O156" s="2" t="n">
-        <v>506</v>
-      </c>
-      <c r="P156" s="2" t="n">
-        <v>175</v>
+        <v>0.158</v>
+      </c>
+      <c r="O156" s="29" t="n">
+        <v>296</v>
+      </c>
+      <c r="P156" s="29" t="n">
+        <v>158</v>
       </c>
       <c r="Q156" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R156" s="0" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="S156" s="0" t="n">
         <v>100</v>
@@ -12352,16 +12364,19 @@
       <c r="AA156" s="0" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB156" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>8</v>
@@ -12370,43 +12385,43 @@
         <v>0.01</v>
       </c>
       <c r="F157" s="24" t="n">
-        <v>-1573</v>
+        <v>-1823</v>
       </c>
       <c r="G157" s="28" t="n">
         <v>0</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I157" s="8" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>0.109</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>-1686</v>
+        <v>-1873</v>
       </c>
       <c r="K157" s="0" t="n">
-        <v>1.22</v>
+        <v>0.25</v>
       </c>
       <c r="L157" s="0" t="n">
-        <v>0.34</v>
+        <v>0.101</v>
       </c>
       <c r="M157" s="2" t="n">
-        <v>2.46</v>
+        <v>0.276</v>
       </c>
       <c r="N157" s="2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O157" s="2" t="n">
-        <v>388</v>
-      </c>
-      <c r="P157" s="2" t="n">
-        <v>144</v>
+        <v>0.111</v>
+      </c>
+      <c r="O157" s="29" t="n">
+        <v>276</v>
+      </c>
+      <c r="P157" s="29" t="n">
+        <v>111</v>
       </c>
       <c r="Q157" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R157" s="0" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="S157" s="0" t="n">
         <v>100</v>
@@ -12435,10 +12450,13 @@
       <c r="AA157" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="AB157" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>7951</v>
@@ -12453,154 +12471,56 @@
         <v>0.01</v>
       </c>
       <c r="F158" s="24" t="n">
-        <v>-1113</v>
+        <v>-1320</v>
       </c>
       <c r="G158" s="28" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>1.44</v>
+        <v>0.27</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>-1728</v>
+        <v>-1678</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L158" s="8" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
+      </c>
+      <c r="L158" s="0" t="n">
+        <v>0.08</v>
       </c>
       <c r="M158" s="2" t="n">
-        <v>2.09</v>
+        <v>0.265</v>
       </c>
       <c r="N158" s="2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O158" s="2" t="n">
-        <v>371</v>
-      </c>
-      <c r="P158" s="2" t="n">
-        <v>184</v>
+        <v>0.112</v>
+      </c>
+      <c r="O158" s="29" t="n">
+        <v>265</v>
+      </c>
+      <c r="P158" s="29" t="n">
+        <v>112</v>
       </c>
       <c r="Q158" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R158" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="S158" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T158" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U158" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V158" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W158" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X158" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y158" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z158" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD158" s="0" t="s">
-        <v>70</v>
+        <v>102</v>
+      </c>
+      <c r="AB158" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>7951</v>
-      </c>
-      <c r="C159" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="D159" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E159" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F159" s="3" t="n">
-        <v>-2042</v>
-      </c>
-      <c r="G159" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H159" s="0" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="I159" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J159" s="0" t="n">
-        <v>-2042</v>
-      </c>
-      <c r="K159" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L159" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M159" s="2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="N159" s="23" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O159" s="12" t="n">
-        <v>283</v>
-      </c>
-      <c r="P159" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q159" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="R159" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="S159" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T159" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U159" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V159" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W159" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X159" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y159" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z159" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA159" s="0" t="n">
-        <v>60</v>
-      </c>
+      <c r="B159" s="1"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="28"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="29"/>
+      <c r="P159" s="29"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
@@ -12618,44 +12538,44 @@
       <c r="E160" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="F160" s="3" t="n">
-        <v>-893</v>
-      </c>
-      <c r="G160" s="0" t="n">
+      <c r="F160" s="24" t="n">
+        <v>-1105</v>
+      </c>
+      <c r="G160" s="28" t="n">
         <v>0</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>-1220</v>
+        <v>-1105</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="L160" s="0" t="n">
         <v>0.39</v>
       </c>
       <c r="M160" s="2" t="n">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="N160" s="2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O160" s="12" t="n">
-        <v>250</v>
-      </c>
-      <c r="P160" s="12" t="n">
-        <v>119</v>
+        <v>0.5</v>
+      </c>
+      <c r="O160" s="2" t="n">
+        <v>506</v>
+      </c>
+      <c r="P160" s="2" t="n">
+        <v>175</v>
       </c>
       <c r="Q160" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R160" s="0" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="S160" s="0" t="n">
         <v>100</v>
@@ -12680,6 +12600,9 @@
       </c>
       <c r="Z160" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="AA160" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12698,44 +12621,44 @@
       <c r="E161" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="F161" s="3" t="n">
-        <v>-1400</v>
-      </c>
-      <c r="G161" s="0" t="n">
+      <c r="F161" s="24" t="n">
+        <v>-1573</v>
+      </c>
+      <c r="G161" s="28" t="n">
         <v>0</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I161" s="0" t="n">
-        <v>0.36</v>
+        <v>1.41</v>
+      </c>
+      <c r="I161" s="8" t="n">
+        <v>0.37</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>-1764</v>
+        <v>-1686</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="L161" s="0" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="M161" s="2" t="n">
-        <v>2.05</v>
+        <v>2.46</v>
       </c>
       <c r="N161" s="2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O161" s="12" t="n">
-        <v>334</v>
-      </c>
-      <c r="P161" s="12" t="n">
-        <v>138</v>
+        <v>0.48</v>
+      </c>
+      <c r="O161" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="P161" s="2" t="n">
+        <v>144</v>
       </c>
       <c r="Q161" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R161" s="0" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="S161" s="0" t="n">
         <v>100</v>
@@ -12766,371 +12689,380 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F162" s="3"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="12"/>
-      <c r="P162" s="12"/>
+      <c r="A162" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F162" s="24" t="n">
+        <v>-1113</v>
+      </c>
+      <c r="G162" s="28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J162" s="0" t="n">
+        <v>-1728</v>
+      </c>
+      <c r="K162" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L162" s="8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M162" s="2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="N162" s="2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O162" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="P162" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q162" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="R162" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="S162" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T162" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U162" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V162" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W162" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X162" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y162" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z162" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD162" s="0" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="B163" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>255</v>
+        <v>200</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F163" s="3" t="n">
-        <v>-160</v>
+        <v>-2042</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>0.74</v>
+        <v>1.71</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>-393</v>
+        <v>-2042</v>
       </c>
       <c r="K163" s="0" t="n">
-        <v>0.68</v>
+        <v>1.3</v>
       </c>
       <c r="L163" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M163" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N163" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O163" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P163" s="2" t="s">
-        <v>25</v>
+        <v>0.37</v>
+      </c>
+      <c r="M163" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="N163" s="23" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O163" s="12" t="n">
+        <v>283</v>
+      </c>
+      <c r="P163" s="13" t="n">
+        <v>100</v>
       </c>
       <c r="Q163" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="R163" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="R163" s="0" t="s">
-        <v>171</v>
-      </c>
       <c r="S163" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T163" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U163" s="28" t="n">
-        <v>500</v>
-      </c>
-      <c r="V163" s="28" t="n">
-        <v>500</v>
-      </c>
-      <c r="W163" s="28" t="n">
-        <v>500</v>
-      </c>
-      <c r="X163" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y163" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z163" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA163" s="0" t="s">
-        <v>172</v>
+        <v>150</v>
+      </c>
+      <c r="U163" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V163" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W163" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X163" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y163" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z163" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA163" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="B164" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>255</v>
+        <v>200</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="F164" s="24" t="n">
-        <v>-535.011185</v>
-      </c>
-      <c r="G164" s="28" t="n">
-        <v>0.003529</v>
+      <c r="F164" s="3" t="n">
+        <v>-893</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>0.58</v>
+        <v>1.29</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>0.206</v>
+        <v>0.39</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>-583</v>
+        <v>-1220</v>
       </c>
       <c r="K164" s="0" t="n">
-        <v>0.56</v>
+        <v>1.22</v>
       </c>
       <c r="L164" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M164" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N164" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O164" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P164" s="2" t="s">
-        <v>25</v>
+        <v>0.39</v>
+      </c>
+      <c r="M164" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N164" s="2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O164" s="12" t="n">
+        <v>250</v>
+      </c>
+      <c r="P164" s="12" t="n">
+        <v>119</v>
       </c>
       <c r="Q164" s="0" t="s">
         <v>257</v>
       </c>
       <c r="R164" s="0" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="S164" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T164" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U164" s="28" t="n">
-        <v>400</v>
-      </c>
-      <c r="V164" s="28" t="n">
-        <v>400</v>
-      </c>
-      <c r="W164" s="28" t="n">
-        <v>400</v>
-      </c>
-      <c r="X164" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y164" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z164" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA164" s="0" t="s">
-        <v>172</v>
+        <v>150</v>
+      </c>
+      <c r="U164" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V164" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W164" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X164" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y164" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z164" s="0" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="B165" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>255</v>
+        <v>200</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F165" s="3" t="n">
-        <v>-493.49</v>
+        <v>-1400</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>0.67</v>
+        <v>1.3</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>-509</v>
+        <v>-1764</v>
       </c>
       <c r="K165" s="0" t="n">
-        <v>0.67</v>
+        <v>1.14</v>
       </c>
       <c r="L165" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P165" s="2" t="s">
-        <v>25</v>
+        <v>0.33</v>
+      </c>
+      <c r="M165" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N165" s="2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O165" s="12" t="n">
+        <v>334</v>
+      </c>
+      <c r="P165" s="12" t="n">
+        <v>138</v>
       </c>
       <c r="Q165" s="0" t="s">
         <v>258</v>
       </c>
       <c r="R165" s="0" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="S165" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T165" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U165" s="28" t="n">
-        <v>400</v>
-      </c>
-      <c r="V165" s="28" t="n">
-        <v>400</v>
-      </c>
-      <c r="W165" s="28" t="n">
-        <v>400</v>
-      </c>
-      <c r="X165" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y165" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z165" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA165" s="0" t="s">
-        <v>172</v>
+        <v>150</v>
+      </c>
+      <c r="U165" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V165" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W165" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X165" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y165" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z165" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA165" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="1" t="n">
-        <v>7951</v>
-      </c>
-      <c r="C166" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="D166" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="E166" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F166" s="3" t="n">
-        <v>-391</v>
-      </c>
-      <c r="G166" s="0" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="H166" s="0" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I166" s="0" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J166" s="0" t="n">
-        <v>-399</v>
-      </c>
-      <c r="K166" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L166" s="0" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q166" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="R166" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="S166" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="T166" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U166" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="V166" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="W166" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="X166" s="16" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y166" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z166" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA166" s="0" t="s">
-        <v>172</v>
-      </c>
+      <c r="F166" s="3"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F167" s="3" t="n">
-        <v>-550</v>
+        <v>-160</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>-550</v>
+        <v>-393</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>0.68</v>
       </c>
       <c r="L167" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M167" s="2" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="N167" s="2" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N167" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O167" s="2" t="s">
         <v>25</v>
@@ -13142,30 +13074,30 @@
         <v>260</v>
       </c>
       <c r="R167" s="0" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="S167" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="T167" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="U167" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V167" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W167" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X167" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y167" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z167" s="0" t="n">
+      <c r="U167" s="28" t="n">
+        <v>500</v>
+      </c>
+      <c r="V167" s="28" t="n">
+        <v>500</v>
+      </c>
+      <c r="W167" s="28" t="n">
+        <v>500</v>
+      </c>
+      <c r="X167" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y167" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z167" s="28" t="n">
         <v>200</v>
       </c>
       <c r="AA167" s="0" t="s">
@@ -13180,37 +13112,37 @@
         <v>300</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="F168" s="3" t="n">
-        <v>-534</v>
-      </c>
-      <c r="G168" s="0" t="n">
-        <v>0</v>
+      <c r="F168" s="24" t="n">
+        <v>-535.011185</v>
+      </c>
+      <c r="G168" s="28" t="n">
+        <v>0.003529</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>1.38</v>
+        <v>0.58</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>0.34</v>
+        <v>0.206</v>
       </c>
       <c r="J168" s="0" t="n">
-        <v>-534</v>
+        <v>-583</v>
       </c>
       <c r="K168" s="0" t="n">
-        <v>1.38</v>
+        <v>0.56</v>
       </c>
       <c r="L168" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M168" s="2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N168" s="2" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N168" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>25</v>
@@ -13222,30 +13154,30 @@
         <v>261</v>
       </c>
       <c r="R168" s="0" t="s">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="S168" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="T168" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="U168" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V168" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W168" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X168" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y168" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z168" s="0" t="n">
+      <c r="U168" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="V168" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="W168" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="X168" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y168" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z168" s="28" t="n">
         <v>200</v>
       </c>
       <c r="AA168" s="0" t="s">
@@ -13257,40 +13189,40 @@
         <v>7951</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F169" s="3" t="n">
-        <v>-532</v>
+        <v>-493.49</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>0.24</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>-542</v>
+        <v>-509</v>
       </c>
       <c r="K169" s="0" t="n">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="L169" s="0" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="M169" s="2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N169" s="2" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N169" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O169" s="2" t="s">
         <v>25</v>
@@ -13299,33 +13231,33 @@
         <v>25</v>
       </c>
       <c r="Q169" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R169" s="0" t="s">
         <v>74</v>
       </c>
       <c r="S169" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="T169" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="U169" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V169" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W169" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X169" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y169" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z169" s="0" t="n">
+      <c r="U169" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="V169" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="W169" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="X169" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y169" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z169" s="28" t="n">
         <v>200</v>
       </c>
       <c r="AA169" s="0" t="s">
@@ -13337,40 +13269,40 @@
         <v>7951</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F170" s="3" t="n">
-        <v>-435</v>
+        <v>-391</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>-532</v>
+        <v>-399</v>
       </c>
       <c r="K170" s="0" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="L170" s="0" t="n">
         <v>0.21</v>
       </c>
-      <c r="M170" s="2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N170" s="2" t="n">
-        <v>0.26</v>
+      <c r="M170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N170" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>25</v>
@@ -13379,31 +13311,31 @@
         <v>25</v>
       </c>
       <c r="Q170" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R170" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="S170" s="16" t="n">
-        <v>250</v>
+      <c r="S170" s="0" t="n">
+        <v>150</v>
       </c>
       <c r="T170" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="U170" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V170" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W170" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X170" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
+      </c>
+      <c r="X170" s="16" t="n">
+        <v>150</v>
       </c>
       <c r="Y170" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Z170" s="0" t="n">
         <v>200</v>
@@ -13417,37 +13349,37 @@
         <v>7951</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F171" s="3" t="n">
-        <v>-648</v>
+        <v>-550</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>-659</v>
+        <v>-550</v>
       </c>
       <c r="K171" s="0" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="L171" s="0" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="M171" s="2" t="n">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="N171" s="2" t="n">
         <v>0.23</v>
@@ -13459,75 +13391,158 @@
         <v>25</v>
       </c>
       <c r="Q171" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="R171" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S171" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T171" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U171" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V171" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W171" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X171" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y171" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z171" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA171" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="1" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F172" s="3" t="n">
+        <v>-534</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J172" s="0" t="n">
+        <v>-534</v>
+      </c>
+      <c r="K172" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L172" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M172" s="2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N172" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q172" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="R171" s="0" t="s">
+      <c r="R172" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="S171" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="T171" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U171" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V171" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W171" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X171" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y171" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z171" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F172" s="3"/>
+      <c r="S172" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T172" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U172" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V172" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W172" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X172" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y172" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z172" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA172" s="0" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F173" s="24" t="n">
-        <v>-576.043843</v>
-      </c>
-      <c r="G173" s="28" t="n">
-        <v>0.324978</v>
+        <v>259</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F173" s="3" t="n">
+        <v>-532</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>-624</v>
+        <v>-542</v>
       </c>
       <c r="K173" s="0" t="n">
-        <v>0.26</v>
+        <v>0.61</v>
       </c>
       <c r="L173" s="0" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="M173" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N173" s="2" t="s">
-        <v>25</v>
+        <v>0.22</v>
+      </c>
+      <c r="M173" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N173" s="2" t="n">
+        <v>0.39</v>
       </c>
       <c r="O173" s="2" t="s">
         <v>25</v>
@@ -13539,30 +13554,30 @@
         <v>267</v>
       </c>
       <c r="R173" s="0" t="s">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="S173" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="T173" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="U173" s="28" t="n">
-        <v>400</v>
-      </c>
-      <c r="V173" s="28" t="n">
-        <v>400</v>
-      </c>
-      <c r="W173" s="28" t="n">
-        <v>400</v>
-      </c>
-      <c r="X173" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y173" s="28" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z173" s="28" t="n">
+      <c r="U173" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V173" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W173" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X173" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y173" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z173" s="0" t="n">
         <v>200</v>
       </c>
       <c r="AA173" s="0" t="s">
@@ -13574,38 +13589,41 @@
         <v>7951</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F174" s="24" t="n">
-        <v>-345</v>
+        <v>259</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>-435</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H174" s="28" t="n">
-        <v>0.97</v>
+        <v>0</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>0.76</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>-345</v>
+        <v>-532</v>
       </c>
       <c r="K174" s="0" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="L174" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M174" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N174" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="M174" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N174" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="O174" s="2" t="s">
         <v>25</v>
       </c>
@@ -13613,13 +13631,13 @@
         <v>25</v>
       </c>
       <c r="Q174" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R174" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="S174" s="0" t="n">
-        <v>150</v>
+        <v>74</v>
+      </c>
+      <c r="S174" s="16" t="n">
+        <v>250</v>
       </c>
       <c r="T174" s="0" t="n">
         <v>100</v>
@@ -13637,7 +13655,7 @@
         <v>200</v>
       </c>
       <c r="Y174" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z174" s="0" t="n">
         <v>200</v>
@@ -13651,40 +13669,40 @@
         <v>7951</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="F175" s="24" t="n">
-        <v>-401</v>
+      <c r="F175" s="3" t="n">
+        <v>-648</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H175" s="28" t="n">
-        <v>0.52</v>
+        <v>0.04</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>0.74</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>-401</v>
+        <v>-659</v>
       </c>
       <c r="K175" s="0" t="n">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="L175" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M175" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N175" s="2" t="s">
-        <v>25</v>
+        <v>0.22</v>
+      </c>
+      <c r="M175" s="2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N175" s="2" t="n">
+        <v>0.23</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>25</v>
@@ -13693,13 +13711,13 @@
         <v>25</v>
       </c>
       <c r="Q175" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="R175" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="R175" s="0" t="s">
-        <v>171</v>
-      </c>
       <c r="S175" s="0" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="T175" s="0" t="n">
         <v>100</v>
@@ -13717,19 +13735,16 @@
         <v>200</v>
       </c>
       <c r="Y175" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z175" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="AA175" s="0" t="s">
-        <v>172</v>
-      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F176" s="3"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="B177" s="1" t="n">
         <v>7951</v>
       </c>
@@ -13737,72 +13752,309 @@
         <v>200</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E177" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F177" s="0" t="n">
-        <v>-592</v>
-      </c>
-      <c r="G177" s="0" t="n">
-        <v>0.27</v>
+        <v>83</v>
+      </c>
+      <c r="F177" s="24" t="n">
+        <v>-576.043843</v>
+      </c>
+      <c r="G177" s="28" t="n">
+        <v>0.324978</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>0.49</v>
+        <v>0.28</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>-584</v>
+        <v>-624</v>
       </c>
       <c r="K177" s="0" t="n">
-        <v>0.72</v>
+        <v>0.26</v>
       </c>
       <c r="L177" s="0" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="M177" s="0" t="n">
-        <v>1.09</v>
+        <v>0.07</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N177" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O177" s="11" t="n">
-        <v>403</v>
-      </c>
-      <c r="P177" s="22" t="n">
-        <v>170</v>
+      <c r="O177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P177" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="Q177" s="0" t="s">
         <v>271</v>
       </c>
       <c r="R177" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="S177" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="T177" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U177" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="V177" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="W177" s="28" t="n">
+        <v>400</v>
+      </c>
+      <c r="X177" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y177" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z177" s="28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA177" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="1" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F178" s="24" t="n">
+        <v>-345</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="H178" s="28" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J178" s="0" t="n">
+        <v>-345</v>
+      </c>
+      <c r="K178" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L178" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q178" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="R178" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="S178" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T178" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U178" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V178" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W178" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X178" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y178" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z178" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA178" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="1" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F179" s="24" t="n">
+        <v>-401</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H179" s="28" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J179" s="0" t="n">
+        <v>-401</v>
+      </c>
+      <c r="K179" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L179" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q179" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="R179" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="S179" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T179" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U179" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V179" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W179" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X179" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y179" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z179" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA179" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>-592</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J181" s="0" t="n">
+        <v>-584</v>
+      </c>
+      <c r="K181" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L181" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M181" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O181" s="11" t="n">
+        <v>403</v>
+      </c>
+      <c r="P181" s="22" t="n">
+        <v>170</v>
+      </c>
+      <c r="Q181" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="R181" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="S177" s="0" t="n">
+      <c r="S181" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="T177" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U177" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V177" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W177" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X177" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y177" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z177" s="0" t="n">
+      <c r="T181" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U181" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V181" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W181" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X181" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y181" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z181" s="0" t="n">
         <v>200</v>
       </c>
     </row>
@@ -13835,42 +14087,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
